--- a/My_PROYECT_FING_G1/ELICITACION/1.1 Backlog/Taller_BacklogV1.xlsx
+++ b/My_PROYECT_FING_G1/ELICITACION/1.1 Backlog/Taller_BacklogV1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27D8B67B-A782-4421-90FE-7947F37BD83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EFD57F-B214-4D64-A01B-BF1181A50B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="100">
   <si>
     <t>Nª</t>
   </si>
@@ -315,9 +315,6 @@
     <t>ADMINISTRADOR O SUBADMINISTRADOR DE LA EMPRESA</t>
   </si>
   <si>
-    <t xml:space="preserve">SOLO EL ADMINISTRADOR Y SUBADMINISTRADOR </t>
-  </si>
-  <si>
     <t>SE DETALLA LA INFORMACIÓN DE LOS EMPLEADOS</t>
   </si>
   <si>
@@ -325,6 +322,21 @@
   </si>
   <si>
     <t>Gerald Astudillo</t>
+  </si>
+  <si>
+    <t>EDITAR O ELIMINAR CUENTAS</t>
+  </si>
+  <si>
+    <t>GESTIONAR LAS CUENTAS POR SI EXISTE ALGUN  DESPIDO, RENUNCIA O ASCENSO</t>
+  </si>
+  <si>
+    <t>SOLO EL ADMINISTRADOR Y SUBADMINISTRADOR CONTROLAN ESTE REQUISITO</t>
+  </si>
+  <si>
+    <t>SE ELIMNA LA INFORMACIÓN REGISTRADA EN LA BASE DE DATOS</t>
+  </si>
+  <si>
+    <t>MEDIA</t>
   </si>
 </sst>
 </file>
@@ -1458,7 +1470,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1529,7 +1541,7 @@
         <v>72</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>11</v>
@@ -1556,7 +1568,7 @@
         <v>75</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>11</v>
@@ -1600,12 +1612,24 @@
       <c r="B6" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
+      <c r="C6" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>12</v>
+      </c>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2718,7 +2742,7 @@
         <v>32</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2748,7 +2772,7 @@
       <c r="E6" s="65"/>
       <c r="F6" s="65"/>
       <c r="G6" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H6" s="30"/>
       <c r="I6" s="33">
@@ -2766,7 +2790,7 @@
       <c r="E7" s="65"/>
       <c r="F7" s="65"/>
       <c r="G7" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H7" s="30"/>
       <c r="I7" s="33">
@@ -2784,7 +2808,7 @@
       <c r="E8" s="65"/>
       <c r="F8" s="65"/>
       <c r="G8" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30">
@@ -2799,7 +2823,7 @@
         <v>85</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H9" s="34"/>
       <c r="I9" s="35">

--- a/My_PROYECT_FING_G1/ELICITACION/1.1 Backlog/Taller_BacklogV1.xlsx
+++ b/My_PROYECT_FING_G1/ELICITACION/1.1 Backlog/Taller_BacklogV1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G406\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFDCE4A-EACE-4EA8-91DB-1D196C38D4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04725EB-7DBB-4139-AF32-80BEAC35C4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -287,9 +287,6 @@
     <t>Crear un formulario de inicio de sesión</t>
   </si>
   <si>
-    <t>Crear un formulario para el registro en una base de datos xampp</t>
-  </si>
-  <si>
     <t>Validación de datos</t>
   </si>
   <si>
@@ -335,17 +332,20 @@
     <t>SOLO EL ADMINISTRADOR Y SUBADMINISTRADOR CONTROLAN ESTE REQUISITO</t>
   </si>
   <si>
-    <t>SE ELIMNA LA INFORMACIÓN REGISTRADA EN LA BASE DE DATOS</t>
-  </si>
-  <si>
     <t>MEDIA</t>
+  </si>
+  <si>
+    <t>Crear un formulario para el registro en un archivo plano</t>
+  </si>
+  <si>
+    <t>SE ELIMNA LA INFORMACIÓN REGISTRADA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -433,6 +433,14 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -715,7 +723,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -768,7 +776,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -898,6 +905,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1089,7 +1100,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="es-EC"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1162,7 +1173,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="es-EC"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1474,8 +1485,8 @@
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1533,11 +1544,11 @@
       <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="66" t="s">
         <v>90</v>
-      </c>
-      <c r="C3" s="67" t="s">
-        <v>91</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>74</v>
@@ -1546,7 +1557,7 @@
         <v>72</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>11</v>
@@ -1560,11 +1571,11 @@
       <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>73</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>74</v>
@@ -1573,7 +1584,7 @@
         <v>75</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>11</v>
@@ -1587,11 +1598,11 @@
       <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="61" t="s">
         <v>76</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>78</v>
@@ -1614,49 +1625,49 @@
       <c r="A6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="67" t="s">
-        <v>91</v>
+      <c r="C6" s="66" t="s">
+        <v>90</v>
       </c>
       <c r="D6" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>96</v>
-      </c>
       <c r="F6" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="G6" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="79" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="70"/>
-      <c r="B7" s="71"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="17"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="18"/>
       <c r="G7" s="19"/>
-      <c r="H7" s="21"/>
+      <c r="H7" s="20"/>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
     </row>
     <row r="9" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1666,22 +1677,24 @@
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="80"/>
+    </row>
+    <row r="18" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2657,7 +2670,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2668,8 +2681,8 @@
   </sheetPr>
   <dimension ref="A1:J1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2685,306 +2698,306 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="68" t="s">
+      <c r="C4" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="G4" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="29"/>
+      <c r="C5" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="29"/>
+      <c r="I5" s="30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="29" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="30"/>
-      <c r="C5" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="74" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="33">
+      <c r="H6" s="29"/>
+      <c r="I6" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="29"/>
+      <c r="I7" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="77" t="s">
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="32" t="s">
+      <c r="C9" t="s">
         <v>84</v>
       </c>
-      <c r="C9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="35">
+      <c r="G9" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="33"/>
+      <c r="I9" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="65" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="64"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="34" t="s">
+    <row r="10" spans="1:10" s="64" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="63"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="34">
         <f>SUM(I6:I9)</f>
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="27" t="s">
+      <c r="I11" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="36" t="s">
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="36" t="s">
+      <c r="I12" s="35" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="31" t="s">
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="31" t="s">
+      <c r="H13" s="29"/>
+      <c r="I13" s="30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="G14" s="30" t="s">
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="G14" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="38">
+      <c r="H14" s="29"/>
+      <c r="I14" s="37">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="G15" s="30" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="G15" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="38">
+      <c r="H15" s="29"/>
+      <c r="I15" s="37">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="G16" s="30" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="G16" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30">
+      <c r="H16" s="29"/>
+      <c r="I16" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="39" t="s">
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="40">
+      <c r="I17" s="39">
         <f>SUM(I14:I16)</f>
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27" t="s">
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="27" t="s">
+      <c r="H18" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="27" t="s">
+      <c r="I18" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="36"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="41" t="s">
+      <c r="B19" s="35"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="45" t="s">
+      <c r="I19" s="44" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="31"/>
-      <c r="G20" s="31" t="s">
+      <c r="C20" s="30"/>
+      <c r="G20" s="30" t="s">
         <v>24</v>
       </c>
       <c r="I20" s="4" t="s">
@@ -2997,7 +3010,7 @@
       <c r="G21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I21" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3007,7 +3020,7 @@
       <c r="G22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I22" s="30">
+      <c r="I22" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3017,67 +3030,67 @@
       <c r="G23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="30">
+      <c r="I23" s="29">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H24" s="34" t="s">
+      <c r="H24" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="I24" s="35">
+      <c r="I24" s="34">
         <f>SUM(I21:I23)</f>
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27" t="s">
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="27" t="s">
+      <c r="I27" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="36"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="41" t="s">
+      <c r="B28" s="35"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="45" t="s">
+      <c r="I28" s="44" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="31"/>
-      <c r="G29" s="31" t="s">
+      <c r="C29" s="30"/>
+      <c r="G29" s="30" t="s">
         <v>24</v>
       </c>
       <c r="I29" s="4" t="s">
@@ -3090,7 +3103,7 @@
       <c r="G30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I30" s="30">
+      <c r="I30" s="29">
         <v>2</v>
       </c>
     </row>
@@ -3100,7 +3113,7 @@
       <c r="G31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I31" s="30">
+      <c r="I31" s="29">
         <v>2</v>
       </c>
     </row>
@@ -3110,7 +3123,7 @@
       <c r="G32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I32" s="30">
+      <c r="I32" s="29">
         <v>2</v>
       </c>
     </row>
@@ -3119,52 +3132,52 @@
       <c r="G33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I33" s="35">
+      <c r="I33" s="34">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H34" s="34" t="s">
+      <c r="H34" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="I34" s="35">
+      <c r="I34" s="34">
         <f>SUM(I30:I33)</f>
         <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27" t="s">
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H35" s="27" t="s">
+      <c r="H35" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="27" t="s">
+      <c r="I35" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="36"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="41" t="s">
+      <c r="B36" s="35"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="I36" s="45" t="s">
+      <c r="I36" s="44" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="31"/>
-      <c r="G37" s="31" t="s">
+      <c r="C37" s="30"/>
+      <c r="G37" s="30" t="s">
         <v>24</v>
       </c>
       <c r="I37" s="4" t="s">
@@ -3177,7 +3190,7 @@
       <c r="G38" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I38" s="30">
+      <c r="I38" s="29">
         <v>2</v>
       </c>
     </row>
@@ -3187,7 +3200,7 @@
       <c r="G39" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I39" s="30">
+      <c r="I39" s="29">
         <v>2</v>
       </c>
     </row>
@@ -3196,7 +3209,7 @@
       <c r="G40" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I40" s="30">
+      <c r="I40" s="29">
         <v>4</v>
       </c>
     </row>
@@ -3205,67 +3218,67 @@
       <c r="G41" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I41" s="35">
+      <c r="I41" s="34">
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H42" s="34" t="s">
+      <c r="H42" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="I42" s="35">
+      <c r="I42" s="34">
         <f>SUM(I38:I41)</f>
         <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27" t="s">
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H45" s="27" t="s">
+      <c r="H45" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I45" s="27" t="s">
+      <c r="I45" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="36"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="41" t="s">
+      <c r="B46" s="35"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="I46" s="45" t="s">
+      <c r="I46" s="44" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="31"/>
-      <c r="G47" s="31" t="s">
+      <c r="C47" s="30"/>
+      <c r="G47" s="30" t="s">
         <v>24</v>
       </c>
       <c r="I47" s="4" t="s">
@@ -3274,78 +3287,78 @@
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="4"/>
-      <c r="C48" s="48"/>
+      <c r="C48" s="47"/>
       <c r="G48" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I48" s="30">
+      <c r="I48" s="29">
         <v>4</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="4"/>
-      <c r="C49" s="48"/>
+      <c r="C49" s="47"/>
       <c r="G49" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I49" s="30">
+      <c r="I49" s="29">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="4"/>
       <c r="G50" s="4"/>
-      <c r="I50" s="30"/>
+      <c r="I50" s="29"/>
     </row>
     <row r="51" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="4"/>
       <c r="G51" s="4"/>
     </row>
     <row r="52" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H52" s="34" t="s">
+      <c r="H52" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="I52" s="35">
+      <c r="I52" s="34">
         <f>SUM(I48:I51)</f>
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H53" s="34"/>
+      <c r="H53" s="33"/>
     </row>
     <row r="54" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27" t="s">
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H54" s="27" t="s">
+      <c r="H54" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I54" s="27" t="s">
+      <c r="I54" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="36"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="41" t="s">
+      <c r="B55" s="35"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="I55" s="45" t="s">
+      <c r="I55" s="44" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C56" s="31"/>
-      <c r="G56" s="31" t="s">
+      <c r="C56" s="30"/>
+      <c r="G56" s="30" t="s">
         <v>24</v>
       </c>
       <c r="I56" s="4" t="s">
@@ -3358,7 +3371,7 @@
       <c r="G57" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I57" s="30">
+      <c r="I57" s="29">
         <v>3</v>
       </c>
     </row>
@@ -3368,27 +3381,27 @@
       <c r="G58" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I58" s="30">
+      <c r="I58" s="29">
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="4"/>
-      <c r="C59" s="48"/>
+      <c r="C59" s="47"/>
       <c r="G59" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I59" s="30">
+      <c r="I59" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="4"/>
-      <c r="C60" s="48"/>
+      <c r="C60" s="47"/>
       <c r="G60" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I60" s="35">
+      <c r="I60" s="34">
         <v>2</v>
       </c>
     </row>
@@ -3396,31 +3409,31 @@
       <c r="G61" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I61" s="35">
+      <c r="I61" s="34">
         <v>3</v>
       </c>
     </row>
     <row r="62" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H62" s="34" t="s">
+      <c r="H62" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="I62" s="35">
+      <c r="I62" s="34">
         <f>SUM(I57:I60)</f>
         <v>10</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H63" s="34"/>
+      <c r="H63" s="33"/>
     </row>
     <row r="64" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H64" s="34"/>
+      <c r="H64" s="33"/>
     </row>
     <row r="65" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H66" s="34" t="s">
+      <c r="H66" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="I66" s="35">
+      <c r="I66" s="34">
         <f>I9+I17+I24+I34+I42</f>
         <v>32</v>
       </c>
@@ -4398,208 +4411,208 @@
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="29" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="49">
         <v>2</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="37">
         <v>1</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="37">
         <v>1</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="37">
         <v>1</v>
       </c>
-      <c r="G4" s="38">
-        <v>0</v>
-      </c>
-      <c r="H4" s="38">
-        <v>0</v>
-      </c>
-      <c r="I4" s="35">
-        <v>0</v>
-      </c>
-      <c r="J4" s="51">
+      <c r="G4" s="37">
+        <v>0</v>
+      </c>
+      <c r="H4" s="37">
+        <v>0</v>
+      </c>
+      <c r="I4" s="34">
+        <v>0</v>
+      </c>
+      <c r="J4" s="50">
         <f t="shared" ref="J4:J12" si="0">SUM(D4:H4)</f>
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="49">
         <v>2</v>
       </c>
-      <c r="D5" s="38">
-        <v>0</v>
-      </c>
-      <c r="E5" s="38">
+      <c r="D5" s="37">
+        <v>0</v>
+      </c>
+      <c r="E5" s="37">
         <v>1</v>
       </c>
-      <c r="F5" s="38">
-        <v>0</v>
-      </c>
-      <c r="G5" s="38">
+      <c r="F5" s="37">
+        <v>0</v>
+      </c>
+      <c r="G5" s="37">
         <v>1</v>
       </c>
-      <c r="H5" s="38">
-        <v>0</v>
-      </c>
-      <c r="I5" s="35">
-        <v>0</v>
-      </c>
-      <c r="J5" s="51">
+      <c r="H5" s="37">
+        <v>0</v>
+      </c>
+      <c r="I5" s="34">
+        <v>0</v>
+      </c>
+      <c r="J5" s="50">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="51">
         <v>1</v>
       </c>
-      <c r="D6" s="38">
-        <v>0</v>
-      </c>
-      <c r="E6" s="38">
+      <c r="D6" s="37">
+        <v>0</v>
+      </c>
+      <c r="E6" s="37">
         <v>1</v>
       </c>
-      <c r="F6" s="38">
-        <v>0</v>
-      </c>
-      <c r="G6" s="38">
-        <v>0</v>
-      </c>
-      <c r="H6" s="38">
-        <v>0</v>
-      </c>
-      <c r="I6" s="35">
-        <v>0</v>
-      </c>
-      <c r="J6" s="51">
+      <c r="F6" s="37">
+        <v>0</v>
+      </c>
+      <c r="G6" s="37">
+        <v>0</v>
+      </c>
+      <c r="H6" s="37">
+        <v>0</v>
+      </c>
+      <c r="I6" s="34">
+        <v>0</v>
+      </c>
+      <c r="J6" s="50">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="52">
         <v>2</v>
       </c>
-      <c r="D7" s="38">
-        <v>0</v>
-      </c>
-      <c r="E7" s="38">
+      <c r="D7" s="37">
+        <v>0</v>
+      </c>
+      <c r="E7" s="37">
         <v>1</v>
       </c>
-      <c r="F7" s="38">
-        <v>0</v>
-      </c>
-      <c r="G7" s="38">
+      <c r="F7" s="37">
+        <v>0</v>
+      </c>
+      <c r="G7" s="37">
         <v>1</v>
       </c>
-      <c r="H7" s="38">
-        <v>0</v>
-      </c>
-      <c r="I7" s="35">
-        <v>0</v>
-      </c>
-      <c r="J7" s="51">
+      <c r="H7" s="37">
+        <v>0</v>
+      </c>
+      <c r="I7" s="34">
+        <v>0</v>
+      </c>
+      <c r="J7" s="50">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="52">
         <v>2</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="37">
         <v>1</v>
       </c>
-      <c r="E8" s="38">
-        <v>0</v>
-      </c>
-      <c r="F8" s="38">
+      <c r="E8" s="37">
+        <v>0</v>
+      </c>
+      <c r="F8" s="37">
         <v>1</v>
       </c>
-      <c r="G8" s="38">
-        <v>0</v>
-      </c>
-      <c r="H8" s="38">
-        <v>0</v>
-      </c>
-      <c r="I8" s="35">
-        <v>0</v>
-      </c>
-      <c r="J8" s="51">
+      <c r="G8" s="37">
+        <v>0</v>
+      </c>
+      <c r="H8" s="37">
+        <v>0</v>
+      </c>
+      <c r="I8" s="34">
+        <v>0</v>
+      </c>
+      <c r="J8" s="50">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="53">
         <v>1</v>
       </c>
-      <c r="D9" s="38">
-        <v>0</v>
-      </c>
-      <c r="E9" s="38">
+      <c r="D9" s="37">
+        <v>0</v>
+      </c>
+      <c r="E9" s="37">
         <v>1</v>
       </c>
-      <c r="F9" s="38">
-        <v>0</v>
-      </c>
-      <c r="G9" s="38">
-        <v>0</v>
-      </c>
-      <c r="H9" s="38">
-        <v>0</v>
-      </c>
-      <c r="I9" s="35">
-        <v>0</v>
-      </c>
-      <c r="J9" s="51">
+      <c r="F9" s="37">
+        <v>0</v>
+      </c>
+      <c r="G9" s="37">
+        <v>0</v>
+      </c>
+      <c r="H9" s="37">
+        <v>0</v>
+      </c>
+      <c r="I9" s="34">
+        <v>0</v>
+      </c>
+      <c r="J9" s="50">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -4608,28 +4621,28 @@
       <c r="B10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="53">
         <v>1</v>
       </c>
-      <c r="D10" s="38">
-        <v>0</v>
-      </c>
-      <c r="E10" s="38">
-        <v>0</v>
-      </c>
-      <c r="F10" s="38">
-        <v>0</v>
-      </c>
-      <c r="G10" s="38">
+      <c r="D10" s="37">
+        <v>0</v>
+      </c>
+      <c r="E10" s="37">
+        <v>0</v>
+      </c>
+      <c r="F10" s="37">
+        <v>0</v>
+      </c>
+      <c r="G10" s="37">
         <v>1</v>
       </c>
-      <c r="H10" s="38">
-        <v>0</v>
-      </c>
-      <c r="I10" s="35">
-        <v>0</v>
-      </c>
-      <c r="J10" s="51">
+      <c r="H10" s="37">
+        <v>0</v>
+      </c>
+      <c r="I10" s="34">
+        <v>0</v>
+      </c>
+      <c r="J10" s="50">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -4638,28 +4651,28 @@
       <c r="B11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="54">
+      <c r="C11" s="53">
         <v>1</v>
       </c>
-      <c r="D11" s="38">
-        <v>0</v>
-      </c>
-      <c r="E11" s="38">
-        <v>0</v>
-      </c>
-      <c r="F11" s="38">
-        <v>0</v>
-      </c>
-      <c r="G11" s="38">
+      <c r="D11" s="37">
+        <v>0</v>
+      </c>
+      <c r="E11" s="37">
+        <v>0</v>
+      </c>
+      <c r="F11" s="37">
+        <v>0</v>
+      </c>
+      <c r="G11" s="37">
         <v>1</v>
       </c>
-      <c r="H11" s="38">
-        <v>0</v>
-      </c>
-      <c r="I11" s="35">
-        <v>0</v>
-      </c>
-      <c r="J11" s="51">
+      <c r="H11" s="37">
+        <v>0</v>
+      </c>
+      <c r="I11" s="34">
+        <v>0</v>
+      </c>
+      <c r="J11" s="50">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -4668,586 +4681,586 @@
       <c r="B12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="54">
+      <c r="C12" s="53">
         <v>3</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="37">
         <v>1</v>
       </c>
-      <c r="E12" s="38">
-        <v>0</v>
-      </c>
-      <c r="F12" s="38">
+      <c r="E12" s="37">
+        <v>0</v>
+      </c>
+      <c r="F12" s="37">
         <v>2</v>
       </c>
-      <c r="G12" s="38">
-        <v>0</v>
-      </c>
-      <c r="H12" s="38">
-        <v>0</v>
-      </c>
-      <c r="I12" s="35">
-        <v>0</v>
-      </c>
-      <c r="J12" s="51">
+      <c r="G12" s="37">
+        <v>0</v>
+      </c>
+      <c r="H12" s="37">
+        <v>0</v>
+      </c>
+      <c r="I12" s="34">
+        <v>0</v>
+      </c>
+      <c r="J12" s="50">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="52">
+      <c r="C13" s="51">
         <v>2</v>
       </c>
-      <c r="D13" s="35">
-        <v>0</v>
-      </c>
-      <c r="E13" s="30">
+      <c r="D13" s="34">
+        <v>0</v>
+      </c>
+      <c r="E13" s="29">
         <v>1</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="37">
         <v>1</v>
       </c>
-      <c r="G13" s="38">
-        <v>0</v>
-      </c>
-      <c r="H13" s="38">
-        <v>0</v>
-      </c>
-      <c r="I13" s="38">
-        <v>0</v>
-      </c>
-      <c r="J13" s="51">
+      <c r="G13" s="37">
+        <v>0</v>
+      </c>
+      <c r="H13" s="37">
+        <v>0</v>
+      </c>
+      <c r="I13" s="37">
+        <v>0</v>
+      </c>
+      <c r="J13" s="50">
         <f t="shared" ref="J13:J14" si="1">SUM(E13:I13)</f>
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="52">
+      <c r="C14" s="51">
         <v>2</v>
       </c>
-      <c r="D14" s="35">
-        <v>0</v>
-      </c>
-      <c r="E14" s="30">
+      <c r="D14" s="34">
+        <v>0</v>
+      </c>
+      <c r="E14" s="29">
         <v>1</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="37">
         <v>1</v>
       </c>
-      <c r="G14" s="38">
-        <v>0</v>
-      </c>
-      <c r="H14" s="38">
-        <v>0</v>
-      </c>
-      <c r="I14" s="38">
-        <v>0</v>
-      </c>
-      <c r="J14" s="51">
+      <c r="G14" s="37">
+        <v>0</v>
+      </c>
+      <c r="H14" s="37">
+        <v>0</v>
+      </c>
+      <c r="I14" s="37">
+        <v>0</v>
+      </c>
+      <c r="J14" s="50">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="52">
+      <c r="C15" s="51">
         <v>2</v>
       </c>
-      <c r="D15" s="30">
-        <v>0</v>
-      </c>
-      <c r="E15" s="38">
-        <v>0</v>
-      </c>
-      <c r="F15" s="38">
+      <c r="D15" s="29">
+        <v>0</v>
+      </c>
+      <c r="E15" s="37">
+        <v>0</v>
+      </c>
+      <c r="F15" s="37">
         <v>1</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="37">
         <v>1</v>
       </c>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38">
-        <v>0</v>
-      </c>
-      <c r="J15" s="51">
+      <c r="H15" s="37"/>
+      <c r="I15" s="37">
+        <v>0</v>
+      </c>
+      <c r="J15" s="50">
         <f t="shared" ref="J15:J20" si="2">SUM(D15:I15)</f>
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="55">
+      <c r="C16" s="54">
         <v>3</v>
       </c>
-      <c r="D16" s="35">
-        <v>0</v>
-      </c>
-      <c r="E16" s="35">
-        <v>0</v>
-      </c>
-      <c r="F16" s="35">
-        <v>0</v>
-      </c>
-      <c r="G16" s="35">
+      <c r="D16" s="34">
+        <v>0</v>
+      </c>
+      <c r="E16" s="34">
+        <v>0</v>
+      </c>
+      <c r="F16" s="34">
+        <v>0</v>
+      </c>
+      <c r="G16" s="34">
         <v>1</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="34">
         <v>1</v>
       </c>
-      <c r="I16" s="35">
+      <c r="I16" s="34">
         <v>1</v>
       </c>
-      <c r="J16" s="51">
+      <c r="J16" s="50">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="29">
         <v>2</v>
       </c>
-      <c r="D17" s="35">
-        <v>0</v>
-      </c>
-      <c r="E17" s="35">
+      <c r="D17" s="34">
+        <v>0</v>
+      </c>
+      <c r="E17" s="34">
         <v>1</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F17" s="34">
         <v>1</v>
       </c>
-      <c r="G17" s="35">
-        <v>0</v>
-      </c>
-      <c r="H17" s="35">
-        <v>0</v>
-      </c>
-      <c r="I17" s="35">
-        <v>0</v>
-      </c>
-      <c r="J17" s="51">
+      <c r="G17" s="34">
+        <v>0</v>
+      </c>
+      <c r="H17" s="34">
+        <v>0</v>
+      </c>
+      <c r="I17" s="34">
+        <v>0</v>
+      </c>
+      <c r="J17" s="50">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="29">
         <v>2</v>
       </c>
-      <c r="D18" s="35">
-        <v>0</v>
-      </c>
-      <c r="E18" s="35">
-        <v>0</v>
-      </c>
-      <c r="F18" s="35">
+      <c r="D18" s="34">
+        <v>0</v>
+      </c>
+      <c r="E18" s="34">
+        <v>0</v>
+      </c>
+      <c r="F18" s="34">
         <v>2</v>
       </c>
-      <c r="G18" s="35">
-        <v>0</v>
-      </c>
-      <c r="H18" s="35">
-        <v>0</v>
-      </c>
-      <c r="I18" s="35">
-        <v>0</v>
-      </c>
-      <c r="J18" s="51">
+      <c r="G18" s="34">
+        <v>0</v>
+      </c>
+      <c r="H18" s="34">
+        <v>0</v>
+      </c>
+      <c r="I18" s="34">
+        <v>0</v>
+      </c>
+      <c r="J18" s="50">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="29">
         <v>4</v>
       </c>
-      <c r="D19" s="35">
-        <v>0</v>
-      </c>
-      <c r="E19" s="35">
-        <v>0</v>
-      </c>
-      <c r="F19" s="35">
-        <v>0</v>
-      </c>
-      <c r="G19" s="35">
+      <c r="D19" s="34">
+        <v>0</v>
+      </c>
+      <c r="E19" s="34">
+        <v>0</v>
+      </c>
+      <c r="F19" s="34">
+        <v>0</v>
+      </c>
+      <c r="G19" s="34">
         <v>2</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H19" s="34">
         <v>2</v>
       </c>
-      <c r="I19" s="35">
-        <v>0</v>
-      </c>
-      <c r="J19" s="51">
+      <c r="I19" s="34">
+        <v>0</v>
+      </c>
+      <c r="J19" s="50">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="34">
         <v>4</v>
       </c>
-      <c r="D20" s="35">
-        <v>0</v>
-      </c>
-      <c r="E20" s="35">
-        <v>0</v>
-      </c>
-      <c r="F20" s="35">
-        <v>0</v>
-      </c>
-      <c r="G20" s="35">
-        <v>0</v>
-      </c>
-      <c r="H20" s="35">
+      <c r="D20" s="34">
+        <v>0</v>
+      </c>
+      <c r="E20" s="34">
+        <v>0</v>
+      </c>
+      <c r="F20" s="34">
+        <v>0</v>
+      </c>
+      <c r="G20" s="34">
+        <v>0</v>
+      </c>
+      <c r="H20" s="34">
         <v>1</v>
       </c>
-      <c r="I20" s="35">
+      <c r="I20" s="34">
         <v>2</v>
       </c>
-      <c r="J20" s="51">
+      <c r="J20" s="50">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="29">
         <v>4</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="34">
         <v>2</v>
       </c>
-      <c r="E21" s="35">
+      <c r="E21" s="34">
         <v>2</v>
       </c>
-      <c r="F21" s="35">
-        <v>0</v>
-      </c>
-      <c r="G21" s="35">
-        <v>0</v>
-      </c>
-      <c r="H21" s="35">
-        <v>0</v>
-      </c>
-      <c r="I21" s="35">
-        <v>0</v>
-      </c>
-      <c r="J21" s="51">
+      <c r="F21" s="34">
+        <v>0</v>
+      </c>
+      <c r="G21" s="34">
+        <v>0</v>
+      </c>
+      <c r="H21" s="34">
+        <v>0</v>
+      </c>
+      <c r="I21" s="34">
+        <v>0</v>
+      </c>
+      <c r="J21" s="50">
         <f>SUM(D21:H21)</f>
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C22" s="29">
         <v>3</v>
       </c>
-      <c r="D22" s="35">
-        <v>0</v>
-      </c>
-      <c r="E22" s="35">
-        <v>0</v>
-      </c>
-      <c r="F22" s="35">
+      <c r="D22" s="34">
+        <v>0</v>
+      </c>
+      <c r="E22" s="34">
+        <v>0</v>
+      </c>
+      <c r="F22" s="34">
         <v>1</v>
       </c>
-      <c r="G22" s="35">
+      <c r="G22" s="34">
         <v>2</v>
       </c>
-      <c r="H22" s="35">
-        <v>0</v>
-      </c>
-      <c r="I22" s="35">
-        <v>0</v>
-      </c>
-      <c r="J22" s="51">
+      <c r="H22" s="34">
+        <v>0</v>
+      </c>
+      <c r="I22" s="34">
+        <v>0</v>
+      </c>
+      <c r="J22" s="50">
         <f>SUM(D22:G22)</f>
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="30">
+      <c r="C23" s="29">
         <v>3</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="34">
         <v>3</v>
       </c>
-      <c r="E23" s="35">
-        <v>0</v>
-      </c>
-      <c r="F23" s="35">
-        <v>0</v>
-      </c>
-      <c r="G23" s="35">
-        <v>0</v>
-      </c>
-      <c r="H23" s="35">
-        <v>0</v>
-      </c>
-      <c r="I23" s="35">
-        <v>0</v>
-      </c>
-      <c r="J23" s="51">
+      <c r="E23" s="34">
+        <v>0</v>
+      </c>
+      <c r="F23" s="34">
+        <v>0</v>
+      </c>
+      <c r="G23" s="34">
+        <v>0</v>
+      </c>
+      <c r="H23" s="34">
+        <v>0</v>
+      </c>
+      <c r="I23" s="34">
+        <v>0</v>
+      </c>
+      <c r="J23" s="50">
         <f t="shared" ref="J23:J27" si="3">SUM(D23:I23)</f>
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="29">
         <v>3</v>
       </c>
-      <c r="D24" s="35">
-        <v>0</v>
-      </c>
-      <c r="E24" s="35">
+      <c r="D24" s="34">
+        <v>0</v>
+      </c>
+      <c r="E24" s="34">
         <v>2</v>
       </c>
-      <c r="F24" s="35">
+      <c r="F24" s="34">
         <v>1</v>
       </c>
-      <c r="G24" s="35">
-        <v>0</v>
-      </c>
-      <c r="H24" s="35">
-        <v>0</v>
-      </c>
-      <c r="I24" s="35">
-        <v>0</v>
-      </c>
-      <c r="J24" s="51">
+      <c r="G24" s="34">
+        <v>0</v>
+      </c>
+      <c r="H24" s="34">
+        <v>0</v>
+      </c>
+      <c r="I24" s="34">
+        <v>0</v>
+      </c>
+      <c r="J24" s="50">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="29">
         <v>2</v>
       </c>
-      <c r="D25" s="35">
-        <v>0</v>
-      </c>
-      <c r="E25" s="35">
-        <v>0</v>
-      </c>
-      <c r="F25" s="35">
+      <c r="D25" s="34">
+        <v>0</v>
+      </c>
+      <c r="E25" s="34">
+        <v>0</v>
+      </c>
+      <c r="F25" s="34">
         <v>2</v>
       </c>
-      <c r="G25" s="35">
-        <v>0</v>
-      </c>
-      <c r="H25" s="35">
-        <v>0</v>
-      </c>
-      <c r="I25" s="35">
-        <v>0</v>
-      </c>
-      <c r="J25" s="51">
+      <c r="G25" s="34">
+        <v>0</v>
+      </c>
+      <c r="H25" s="34">
+        <v>0</v>
+      </c>
+      <c r="I25" s="34">
+        <v>0</v>
+      </c>
+      <c r="J25" s="50">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="30"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="35">
+      <c r="C26" s="34">
         <v>2</v>
       </c>
-      <c r="D26" s="35">
-        <v>0</v>
-      </c>
-      <c r="E26" s="35">
-        <v>0</v>
-      </c>
-      <c r="F26" s="35">
-        <v>0</v>
-      </c>
-      <c r="G26" s="35">
+      <c r="D26" s="34">
+        <v>0</v>
+      </c>
+      <c r="E26" s="34">
+        <v>0</v>
+      </c>
+      <c r="F26" s="34">
+        <v>0</v>
+      </c>
+      <c r="G26" s="34">
         <v>1</v>
       </c>
-      <c r="H26" s="35">
+      <c r="H26" s="34">
         <v>1</v>
       </c>
-      <c r="I26" s="35">
-        <v>0</v>
-      </c>
-      <c r="J26" s="51">
+      <c r="I26" s="34">
+        <v>0</v>
+      </c>
+      <c r="J26" s="50">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="30"/>
-      <c r="B27" s="35" t="s">
+      <c r="A27" s="29"/>
+      <c r="B27" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="35">
+      <c r="C27" s="34">
         <v>3</v>
       </c>
-      <c r="D27" s="35">
-        <v>0</v>
-      </c>
-      <c r="E27" s="35">
-        <v>0</v>
-      </c>
-      <c r="F27" s="35">
-        <v>0</v>
-      </c>
-      <c r="G27" s="35">
-        <v>0</v>
-      </c>
-      <c r="H27" s="35">
-        <v>0</v>
-      </c>
-      <c r="I27" s="35">
+      <c r="D27" s="34">
+        <v>0</v>
+      </c>
+      <c r="E27" s="34">
+        <v>0</v>
+      </c>
+      <c r="F27" s="34">
+        <v>0</v>
+      </c>
+      <c r="G27" s="34">
+        <v>0</v>
+      </c>
+      <c r="H27" s="34">
+        <v>0</v>
+      </c>
+      <c r="I27" s="34">
         <v>3</v>
       </c>
-      <c r="J27" s="51">
+      <c r="J27" s="50">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="30"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="4"/>
-      <c r="J28" s="35">
+      <c r="J28" s="34">
         <f>SUBTOTAL(109,burdonchart!$J$4:$J$27)</f>
         <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="30"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="30"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="4"/>
-      <c r="L30" s="56"/>
+      <c r="L30" s="55"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="30"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="4"/>
-      <c r="L31" s="56"/>
+      <c r="L31" s="55"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="30"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="4"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="30"/>
+      <c r="A33" s="29"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="30">
+      <c r="C34" s="29">
         <f>SUM(C4:C27)</f>
         <v>56</v>
       </c>
-      <c r="D34" s="30">
+      <c r="D34" s="29">
         <f t="shared" ref="D34:I34" si="4">C34-SUM(D4:D27)</f>
         <v>48</v>
       </c>
-      <c r="E34" s="30">
+      <c r="E34" s="29">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="F34" s="30">
+      <c r="F34" s="29">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="G34" s="30">
+      <c r="G34" s="29">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="H34" s="30">
+      <c r="H34" s="29">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="I34" s="30">
+      <c r="I34" s="29">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="30">
+      <c r="C35" s="29">
         <f>SUM(C4:C27)</f>
         <v>56</v>
       </c>
-      <c r="D35" s="58">
+      <c r="D35" s="57">
         <f t="shared" ref="D35:I35" si="5">C35-($C35/6)</f>
         <v>46.666666666666664</v>
       </c>
-      <c r="E35" s="59">
+      <c r="E35" s="58">
         <f t="shared" si="5"/>
         <v>37.333333333333329</v>
       </c>
-      <c r="F35" s="59">
+      <c r="F35" s="58">
         <f t="shared" si="5"/>
         <v>27.999999999999993</v>
       </c>
-      <c r="G35" s="59">
+      <c r="G35" s="58">
         <f t="shared" si="5"/>
         <v>18.666666666666657</v>
       </c>
-      <c r="H35" s="59">
+      <c r="H35" s="58">
         <f t="shared" si="5"/>
         <v>9.3333333333333233</v>
       </c>
-      <c r="I35" s="59">
+      <c r="I35" s="58">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -5255,157 +5268,157 @@
     <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="78" t="s">
+      <c r="B39" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="K39" s="79" t="s">
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="K39" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="L39" s="75"/>
+      <c r="L39" s="74"/>
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="75"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="K40" s="75"/>
-      <c r="L40" s="75"/>
+      <c r="B40" s="74"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="K40" s="74"/>
+      <c r="L40" s="74"/>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="75"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="K41" s="75"/>
-      <c r="L41" s="75"/>
+      <c r="B41" s="74"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="K41" s="74"/>
+      <c r="L41" s="74"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="75"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="75"/>
+      <c r="B42" s="74"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="K42" s="74"/>
+      <c r="L42" s="74"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="75"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="K43" s="75"/>
-      <c r="L43" s="75"/>
+      <c r="B43" s="74"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="K43" s="74"/>
+      <c r="L43" s="74"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="75"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="K44" s="75"/>
-      <c r="L44" s="75"/>
+      <c r="B44" s="74"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="K44" s="74"/>
+      <c r="L44" s="74"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="75"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="K45" s="75"/>
-      <c r="L45" s="75"/>
+      <c r="B45" s="74"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="K45" s="74"/>
+      <c r="L45" s="74"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="75"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
-      <c r="K46" s="75"/>
-      <c r="L46" s="75"/>
+      <c r="B46" s="74"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="K46" s="74"/>
+      <c r="L46" s="74"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="75"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="K47" s="75"/>
-      <c r="L47" s="75"/>
+      <c r="B47" s="74"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="K47" s="74"/>
+      <c r="L47" s="74"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="75"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="K48" s="75"/>
-      <c r="L48" s="75"/>
+      <c r="B48" s="74"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="K48" s="74"/>
+      <c r="L48" s="74"/>
     </row>
     <row r="49" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="75"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="K49" s="75"/>
-      <c r="L49" s="75"/>
+      <c r="B49" s="74"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="K49" s="74"/>
+      <c r="L49" s="74"/>
     </row>
     <row r="50" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="75"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-      <c r="K50" s="75"/>
-      <c r="L50" s="75"/>
+      <c r="B50" s="74"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="K50" s="74"/>
+      <c r="L50" s="74"/>
     </row>
     <row r="51" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="75"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-      <c r="K51" s="75"/>
-      <c r="L51" s="75"/>
+      <c r="B51" s="74"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="K51" s="74"/>
+      <c r="L51" s="74"/>
     </row>
     <row r="52" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="75"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
+      <c r="B52" s="74"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
     </row>
     <row r="53" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="75"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
+      <c r="B53" s="74"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
     </row>
     <row r="54" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="75"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="60"/>
+      <c r="B54" s="74"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="59"/>
     </row>
     <row r="55" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="56" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="60"/>
+      <c r="B56" s="59"/>
     </row>
     <row r="57" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="60"/>
+      <c r="B57" s="59"/>
     </row>
     <row r="58" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="60"/>
+      <c r="B58" s="59"/>
     </row>
     <row r="59" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="60"/>
+      <c r="B59" s="59"/>
     </row>
     <row r="60" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="60"/>
+      <c r="B60" s="59"/>
     </row>
     <row r="61" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="60"/>
+      <c r="B61" s="59"/>
     </row>
     <row r="62" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="60"/>
+      <c r="B62" s="59"/>
     </row>
     <row r="63" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="60"/>
+      <c r="B63" s="59"/>
     </row>
     <row r="64" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="60"/>
+      <c r="B64" s="59"/>
     </row>
     <row r="65" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="60"/>
+      <c r="B65" s="59"/>
     </row>
     <row r="66" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="60"/>
+      <c r="B66" s="59"/>
     </row>
     <row r="67" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="60"/>
+      <c r="B67" s="59"/>
     </row>
     <row r="68" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="60"/>
+      <c r="B68" s="59"/>
     </row>
     <row r="69" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="60"/>
+      <c r="B69" s="59"/>
     </row>
     <row r="70" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="71" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/My_PROYECT_FING_G1/ELICITACION/1.1 Backlog/Taller_BacklogV1.xlsx
+++ b/My_PROYECT_FING_G1/ELICITACION/1.1 Backlog/Taller_BacklogV1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G406\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04725EB-7DBB-4139-AF32-80BEAC35C4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2F4F35-C2C4-441C-AC3B-A9C69714F918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -1485,7 +1485,7 @@
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -2681,7 +2681,7 @@
   </sheetPr>
   <dimension ref="A1:J1008"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
